--- a/iselUssSyncV2/OutputWSLorientation/20220524_1407_D50L474W30Q21.0U0.38H69.8G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1407_D50L474W30Q21.0U0.38H69.8G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.42743688916605993</v>
+        <v>0.24438635430690858</v>
       </c>
       <c r="P2" s="0">
         <v>186.6212666666666</v>
@@ -356,10 +356,10 @@
         <v>1.8307546259999994</v>
       </c>
       <c r="R2" s="0">
-        <v>1.0770252658970108</v>
+        <v>1.8837399105767212</v>
       </c>
       <c r="S2" s="0">
-        <v>0.35307959449272197</v>
+        <v>1.0755250346829239</v>
       </c>
       <c r="T2" s="0">
         <v>0.041607517051556117</v>
@@ -383,16 +383,16 @@
         <v>180000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.6998251424261974</v>
+        <v>0.9718722928365946</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.1851045898879811</v>
+        <v>1.702196199031039</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.0196962100493709</v>
+        <v>1.1547580615806115</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.5133458204487145</v>
+        <v>1.2566729102243572</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>7.2048007999373525</v>
+        <v>2.8569542606116505</v>
       </c>
     </row>
   </sheetData>
